--- a/analysis_specifications/analysis2_joel_2.xlsx
+++ b/analysis_specifications/analysis2_joel_2.xlsx
@@ -420,7 +420,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="3">
@@ -433,7 +433,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>9999</v>
       </c>
     </row>
   </sheetData>
